--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.046</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.295</v>
+        <v>16.424</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.401</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.966</v>
+        <v>16.229</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.328</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.07</v>
+        <v>8.035</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9.523170758157541</v>
+        <v>4.982701177454707</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.05894480849228</v>
+        <v>7.630949453895951</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.23333643273442</v>
+        <v>14.5479895340153</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.538518483321411</v>
+        <v>-4.616420057537468</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.53120245225482</v>
+        <v>8.827141721535371</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.10418190185975</v>
+        <v>12.95632624949774</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>11.17646052555486</v>
+        <v>-0.1812162910427837</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.37007749365593</v>
+        <v>21.54822254159514</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.64237022124591</v>
+        <v>25.86200697672621</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.98901053139155</v>
+        <v>15.64618292691935</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.27883792143982</v>
+        <v>19.56611971387619</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.41562842461611</v>
+        <v>23.90765824645647</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.97909891866994</v>
+        <v>3.351109787177244</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.02050431592873</v>
+        <v>9.000894483161552</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.41497280635033</v>
+        <v>19.60491224292882</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.70022634237021</v>
+        <v>12.19029633367556</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.84115406720399</v>
+        <v>23.32409443258224</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.12956779203645</v>
+        <v>31.79606367877036</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.559721128248071</v>
+        <v>-1.509509063569794</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.05829369725885</v>
+        <v>11.51598779761934</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.78196257252154</v>
+        <v>19.91470755223246</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.73702012377981</v>
+        <v>0.4416001047666818</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.58448419708445</v>
+        <v>26.97509338639965</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.96350183835008</v>
+        <v>39.21903453533277</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.24201240598245</v>
+        <v>27.15589673337094</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43.4494907611001</v>
+        <v>39.62882878908187</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>46.65678099774029</v>
+        <v>48.02190649522692</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.82062672678823</v>
+        <v>3.159574519123634</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.28001447311132</v>
+        <v>26.67536168024643</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.57651868853149</v>
+        <v>36.90486663890433</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>18.97272452315851</v>
+        <v>14.89356696777523</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.54154799829214</v>
+        <v>27.12830453619778</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>39.99459443039473</v>
+        <v>36.25548832790125</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>11.69291895047186</v>
+        <v>-1.159137321481346</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.88842786182658</v>
+        <v>16.33207607425243</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>34.73362493728079</v>
+        <v>24.13204443675711</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.09125300807084</v>
+        <v>2.264766286176283</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.32364355265494</v>
+        <v>34.61515581964279</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.87965664660265</v>
+        <v>48.23714013523156</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.3841699728782</v>
+        <v>41.27946648106324</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.51337660723679</v>
+        <v>53.14944921375861</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.90924571739691</v>
+        <v>62.89315185175265</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.19328067373597</v>
+        <v>9.370957648396439</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43.1774367211298</v>
+        <v>36.61840049118433</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.58590177988378</v>
+        <v>48.98742431289591</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.23356760676982</v>
+        <v>6.498011681503232</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.99627931108934</v>
+        <v>27.61295639245318</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>35.09611422853443</v>
+        <v>35.12676888060054</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8.932251108834627</v>
+        <v>1.80099570243507</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.36714926253693</v>
+        <v>30.90044538497501</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.78012432403376</v>
+        <v>36.29317148088651</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>16.98838613199429</v>
+        <v>7.022673938121676</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.41634773411613</v>
+        <v>52.3990038659454</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.62182741214427</v>
+        <v>56.37632678596655</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.13396686312736</v>
+        <v>42.1616590804543</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.7755554192569</v>
+        <v>49.17117929716241</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.96514963770205</v>
+        <v>53.22909892799567</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.72548017524147</v>
+        <v>6.847170170766013</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.4712896356785</v>
+        <v>34.46978262923682</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.80445916317557</v>
+        <v>44.63416094961532</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.4756445428044</v>
+        <v>6.179858858977882</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.74798298846996</v>
+        <v>28.46891636454958</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.9182368500765</v>
+        <v>35.79586194710333</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>11.07503409907171</v>
+        <v>-2.118854339702285</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.91165197694532</v>
+        <v>21.16112216926333</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.43009314570571</v>
+        <v>29.77115784863093</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.5881200945683</v>
+        <v>-0.6512146802608889</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.57354561598235</v>
+        <v>42.05561853979182</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40.84036131469077</v>
+        <v>51.50194539360355</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40.44486903775609</v>
+        <v>39.54460730635069</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>48.92400647224832</v>
+        <v>52.26921281458903</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.14123017218547</v>
+        <v>59.87143319313473</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.78138604270237</v>
+        <v>2.474879642681838</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.7620005594009</v>
+        <v>39.8200078236729</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>46.97211651444132</v>
+        <v>48.11078249740976</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.35812859148204</v>
+        <v>6.789470586099007</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.05833700351369</v>
+        <v>31.75159923997647</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.38465377809542</v>
+        <v>41.42845250554733</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16.88217085552669</v>
+        <v>-3.688810246824488</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.40922817960434</v>
+        <v>24.85588751167103</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.02586118920077</v>
+        <v>33.65709594989726</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.67081111588603</v>
+        <v>-0.7035503619956245</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.04167039696632</v>
+        <v>49.10298057739113</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>48.47973862290966</v>
+        <v>62.35047949753805</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>48.24134634011307</v>
+        <v>51.26499792381717</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>56.67344536525526</v>
+        <v>65.70757910552656</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>60.09935470642567</v>
+        <v>73.96317663892729</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.74496953460635</v>
+        <v>5.082901292424729</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.28814775579103</v>
+        <v>49.36568930887128</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>54.58213744367886</v>
+        <v>59.10011726721468</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.46986177798249</v>
+        <v>13.65062876361322</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.13716803550015</v>
+        <v>26.941264855973</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.16784634884422</v>
+        <v>32.00028006552706</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.951365604714539</v>
+        <v>3.133302397757891</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.29329038941863</v>
+        <v>26.48709585275294</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.60838293459532</v>
+        <v>29.74859909479583</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.03411989793288</v>
+        <v>9.87094469684121</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.35724401918984</v>
+        <v>48.03922542406836</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.49514440433475</v>
+        <v>49.59610961650127</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.19621537730873</v>
+        <v>38.57028161952343</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.82275825546243</v>
+        <v>46.47511492433139</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.9592748743404</v>
+        <v>48.2141516266866</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.93640972811859</v>
+        <v>13.88867440452799</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.5181710002961</v>
+        <v>29.57948076051987</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.76390569406411</v>
+        <v>38.56954064074222</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.27832631939346</v>
+        <v>17.59969300393638</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.47241909734811</v>
+        <v>34.67271118514295</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.57504928954656</v>
+        <v>39.3794880248049</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10.68166201720278</v>
+        <v>3.125641986271113</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.44576337574378</v>
+        <v>24.47771865867507</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.86816954334213</v>
+        <v>30.54074309980911</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.24801179809143</v>
+        <v>7.41907438340526</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.14615770287162</v>
+        <v>46.13323999677566</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>40.34633750738637</v>
+        <v>52.95184080339348</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>40.07635676900237</v>
+        <v>43.95284531150327</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.54047178222741</v>
+        <v>56.37293802958179</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.70916843072951</v>
+        <v>60.80272000805552</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.54769556547386</v>
+        <v>14.39915704540894</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.37725267711673</v>
+        <v>42.39594254370242</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.50912803531026</v>
+        <v>50.04593182599385</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.01811941659884</v>
+        <v>16.07114578202515</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.64475106811443</v>
+        <v>35.45832216885554</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.90399705377762</v>
+        <v>42.75341233088216</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.3203206468757</v>
+        <v>0.1550187240097323</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.77928534278074</v>
+        <v>26.79856584176209</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.30154047167457</v>
+        <v>32.59015789948332</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.15822980409559</v>
+        <v>5.577992519398228</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43.44672586132211</v>
+        <v>51.2100545865914</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.81897721183761</v>
+        <v>61.81251423075476</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>47.71933217345037</v>
+        <v>54.01571722642615</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>56.13500673504866</v>
+        <v>67.44911960490769</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>59.52055051654363</v>
+        <v>73.44521409956155</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.33624033015916</v>
+        <v>15.44163388760986</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.74333492026174</v>
+        <v>50.26581930963589</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>53.95514877049624</v>
+        <v>59.31154769137798</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>4.177797312544357</v>
+        <v>6.088282037621145</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.33409638014163</v>
+        <v>8.295701144643829</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.40340439105597</v>
+        <v>15.19414701499253</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1.92409762175577</v>
+        <v>-3.560283716406524</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.63356625931628</v>
+        <v>9.179276423906417</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>19.08701064157099</v>
+        <v>13.68776924090411</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.220593853603738</v>
+        <v>1.006203229976165</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.03918725283488</v>
+        <v>20.95365675817138</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.20489656912068</v>
+        <v>25.6046036433806</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.01595444758237</v>
+        <v>16.90751242971655</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.1251613328822</v>
+        <v>20.15723706900994</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.21396161447726</v>
+        <v>26.7683086963039</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>8.631770700347353</v>
+        <v>15.12083833236737</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.21454530736721</v>
+        <v>19.92177958550549</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.44675328832436</v>
+        <v>28.81291177963559</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.145876769176454</v>
+        <v>11.61762104901798</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.88169519083192</v>
+        <v>21.48721275592688</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.06544067709648</v>
+        <v>29.81233568732865</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.9162023495041112</v>
+        <v>-1.815560071048175</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17.94958642372674</v>
+        <v>10.33495904972854</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.55544665706775</v>
+        <v>18.70617542813905</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>8.571152111566015</v>
+        <v>-0.8031328321452733</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.01783326634973</v>
+        <v>22.78168757277653</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.29050216583938</v>
+        <v>35.06986822418253</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.05925855557793</v>
+        <v>22.67782113525583</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.07521177953022</v>
+        <v>34.59585375682185</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>40.22753023150031</v>
+        <v>44.79170967711926</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.26938084363866</v>
+        <v>7.152808907640303</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.22691963822447</v>
+        <v>28.85293512654202</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.36403287029719</v>
+        <v>36.76507086629616</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.96442045312437</v>
+        <v>15.92811286336536</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.14598968382328</v>
+        <v>26.4750335880945</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.4977867976297</v>
+        <v>35.34470045386192</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.557909154827499</v>
+        <v>-0.9249344785086713</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.30914166682252</v>
+        <v>15.08888867488191</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.0403605176853</v>
+        <v>22.65577786711449</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.4925706868169</v>
+        <v>2.556770965968113</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>31.34125590225426</v>
+        <v>31.76174268315989</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.79418865800803</v>
+        <v>45.61030953410359</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.73815629238565</v>
+        <v>36.71046022721823</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>44.68050470425221</v>
+        <v>47.11168529676355</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.02694921058426</v>
+        <v>59.45835336803489</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>19.13689980288068</v>
+        <v>13.67877102024364</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>37.6439859738483</v>
+        <v>38.15007550621949</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.90387306792132</v>
+        <v>48.46483848627379</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.4850108445144</v>
+        <v>10.02824916500122</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.31104033707662</v>
+        <v>20.68344494009878</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.44919010839638</v>
+        <v>26.51703940381263</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>5.5077419523396</v>
+        <v>1.212286411858607</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.84570445714346</v>
+        <v>23.58107228001643</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.37633063204145</v>
+        <v>27.27314438652923</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>13.26522268840873</v>
+        <v>8.794950321961373</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.75018049713995</v>
+        <v>42.54500322051491</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>32.98856550526108</v>
+        <v>45.33675438482408</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>32.9686217549561</v>
+        <v>29.94782482039765</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.39653209103737</v>
+        <v>36.01448358659493</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.47172149620447</v>
+        <v>39.0883103754843</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>15.77528424481492</v>
+        <v>13.37419532197171</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.06373227119079</v>
+        <v>22.39803612143947</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>38.36842573247458</v>
+        <v>30.29940909923696</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.9435707840405</v>
+        <v>20.91942180393284</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>32.34059006464372</v>
+        <v>37.23133359429863</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.57106920907601</v>
+        <v>41.51477070988979</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.842866014938252</v>
+        <v>6.285372454528749</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.64826206056878</v>
+        <v>26.85753673912776</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.30641467000592</v>
+        <v>31.9994178308216</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>17.14733270708626</v>
+        <v>11.51341569504117</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.25106991134459</v>
+        <v>46.94529058834679</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.57349605052015</v>
+        <v>54.25774205456793</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>37.52498638087513</v>
+        <v>45.89063770973566</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>45.85075520243208</v>
+        <v>58.74615899279758</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.98326259617856</v>
+        <v>64.26852534116091</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>19.9484300040785</v>
+        <v>22.32982700433654</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>38.60456441550521</v>
+        <v>47.16123647103964</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.79070359610833</v>
+        <v>52.9251742819507</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.82373893840923</v>
+        <v>18.1527118584706</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.6510969379873</v>
+        <v>34.85624427837878</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.069899832529</v>
+        <v>41.21298804042664</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.55285274293321</v>
+        <v>0.8070013295494718</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.05358509513745</v>
+        <v>24.11978179503349</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.85887415980515</v>
+        <v>29.614148103065</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>23.05997601818057</v>
+        <v>6.763264492218113</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>39.5512626247673</v>
+        <v>46.93737595743625</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>44.07446456012775</v>
+        <v>57.83230325852829</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>44.2477311134933</v>
+        <v>51.7754720797176</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>52.52020585560609</v>
+        <v>63.97041479308146</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>55.85400871628797</v>
+        <v>71.28501838525911</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.89596249693814</v>
+        <v>19.72239476223906</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>45.09837760029349</v>
+        <v>48.33981014914003</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>50.43583479576581</v>
+        <v>57.51565231776401</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>2.773576861386047</v>
+        <v>6.242856461408817</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>18.32694685143487</v>
+        <v>22.96073680309751</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.05514003910731</v>
+        <v>28.68687333658907</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-2.428974863420073</v>
+        <v>1.955539149659785</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>14.71085599655031</v>
+        <v>29.0996438048923</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.73154963640596</v>
+        <v>33.09226447319492</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3.997934060457773</v>
+        <v>7.9556190305423</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>19.23443478013478</v>
+        <v>51.2721310973225</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.06571356259482</v>
+        <v>52.65060276144401</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>23.93069919698371</v>
+        <v>31.15044908525243</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>30.86649400566181</v>
+        <v>38.33072480035175</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>33.64352073531445</v>
+        <v>41.28511259324486</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.373556899688218</v>
+        <v>4.413477548135855</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.36667688719066</v>
+        <v>19.50322656059917</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.22071958158888</v>
+        <v>25.74420592196584</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>7.231308257019776</v>
+        <v>17.03989052622852</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.25833815099234</v>
+        <v>41.03991446932092</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.02730894493695</v>
+        <v>43.82131471214886</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1.032023358715698</v>
+        <v>2.870114742661361</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.54173178120804</v>
+        <v>31.40780232749347</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.63450079714918</v>
+        <v>35.7579723614353</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>7.96001484736879</v>
+        <v>7.606577475486532</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>23.71400884583392</v>
+        <v>55.43057843309821</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.57579513666705</v>
+        <v>59.3394868115228</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.46452391277676</v>
+        <v>48.30449184444639</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.17836987260438</v>
+        <v>61.19285456249625</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>38.97583337338968</v>
+        <v>66.47403561761976</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>11.64014369789687</v>
+        <v>16.5345229158956</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.81755993054606</v>
+        <v>52.24742967202549</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.52497073790931</v>
+        <v>56.63268912652489</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>11.74052146583962</v>
+        <v>16.02424236305575</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.14789679962978</v>
+        <v>39.17958827227278</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>32.09249499690488</v>
+        <v>45.28463785969485</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.367483025837139</v>
+        <v>-0.8510608045581876</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>23.49531980296923</v>
+        <v>28.35770029222449</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>27.719125465891</v>
+        <v>33.69657179486367</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.42942993589198</v>
+        <v>4.857073589165068</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.52457191010125</v>
+        <v>55.13072373219743</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.57478213147341</v>
+        <v>64.3496092418625</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>34.691635424932</v>
+        <v>55.21362950818585</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>42.35746954759125</v>
+        <v>68.28999250041667</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>45.35795620362043</v>
+        <v>73.66634529260401</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.1323487992788</v>
+        <v>14.96452329422074</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>35.81645589001558</v>
+        <v>54.24236926856227</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>40.66565321089573</v>
+        <v>61.15935185223995</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2.326255726705853</v>
+        <v>2.467909407309968</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.22059386195828</v>
+        <v>3.121153003378112</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.98091644672813</v>
+        <v>8.16413643655914</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-7.786931345723154</v>
+        <v>-3.538164165163501</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.183970269835974</v>
+        <v>6.423346148385388</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>12.23154975770728</v>
+        <v>9.549211284394996</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-1.673956951048474</v>
+        <v>-1.978082644736901</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>12.54889361327525</v>
+        <v>16.85146936547231</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.40844543870575</v>
+        <v>18.87822647507806</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.3396384375451</v>
+        <v>14.85638082227977</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.92043241973914</v>
+        <v>20.51316429308923</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>27.79775177639408</v>
+        <v>22.00662543629116</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2.482043390623637</v>
+        <v>1.906780813254528</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.46571130582919</v>
+        <v>6.35702494053918</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>23.4540430678804</v>
+        <v>14.00176133742657</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.724097812564963</v>
+        <v>9.028621387808773</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.84579724809984</v>
+        <v>20.76620925794485</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20.70952022413604</v>
+        <v>28.69031749661995</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-4.804147273458334</v>
+        <v>-0.6826594248877704</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>11.65236647533288</v>
+        <v>13.22115640468419</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.83989954630993</v>
+        <v>22.16626437048448</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>1.805155578325959</v>
+        <v>0.1326749247198151</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>16.64889387956428</v>
+        <v>28.30466661035969</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>20.60382328926026</v>
+        <v>38.44358487290279</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.39592048606251</v>
+        <v>27.08407176020357</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.80889209930854</v>
+        <v>38.88913753780431</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>32.74802336297216</v>
+        <v>44.24981565749454</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.193730710344113</v>
+        <v>2.653432896671433</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>23.49722435780701</v>
+        <v>27.01426998599677</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.40668899121711</v>
+        <v>35.74569651393286</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>7.123362170549555</v>
+        <v>10.10472799700912</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.62018224263203</v>
+        <v>23.13306409700419</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.60370784694997</v>
+        <v>32.4115995860587</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.4761406455476802</v>
+        <v>-1.916697142378013</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.55598461556812</v>
+        <v>17.10098927833155</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.81245520366471</v>
+        <v>24.95661229417203</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>8.255882976413723</v>
+        <v>1.924966731196378</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.43519919370394</v>
+        <v>36.16960902094668</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>27.52324989769006</v>
+        <v>47.97363167383443</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.55946989940555</v>
+        <v>42.64880799419056</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.85921767737553</v>
+        <v>55.70762123860429</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.97097853931046</v>
+        <v>60.31744409437696</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.61383009288389</v>
+        <v>12.4852693475282</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.38163316099422</v>
+        <v>40.59656471815481</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>35.33185896835707</v>
+        <v>50.06562111958112</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-7.022413252065924</v>
+        <v>1.195823771349069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>8.144705314804099</v>
+        <v>1.652153613094395</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.12617256920429</v>
+        <v>9.578853561800063</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-12.76669543620057</v>
+        <v>-4.30800729813539</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>3.835263918235889</v>
+        <v>5.632899094136839</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.190040102457729</v>
+        <v>10.91140254553993</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-6.500877823160771</v>
+        <v>-3.84879106358099</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>8.333952171643901</v>
+        <v>15.4639198186397</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.41401789442063</v>
+        <v>20.73953463890176</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.12764227798918</v>
+        <v>8.167686275038474</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.25396290641644</v>
+        <v>12.58217668742557</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.24637324234772</v>
+        <v>18.54783475357499</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-1.987521797552503</v>
+        <v>-1.179458622055794</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>14.65628766127769</v>
+        <v>1.25453528497518</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.72328377183485</v>
+        <v>7.72589959938054</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-3.091398930024518</v>
+        <v>-0.7682599440996469</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.60506864975285</v>
+        <v>3.701220729445311</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>16.69009058621305</v>
+        <v>13.10154200958139</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-9.926735773870568</v>
+        <v>-7.356233525661917</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.098003771237778</v>
+        <v>-1.183736307672934</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.59050418952041</v>
+        <v>8.042137672111821</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-3.157537095519508</v>
+        <v>-10.32506980918131</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>12.25362093998994</v>
+        <v>8.79011377817638</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>16.42974100341971</v>
+        <v>21.7385664810088</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.13710243284653</v>
+        <v>8.685896412006048</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.1432980323552</v>
+        <v>21.81719515220583</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.20082065365891</v>
+        <v>33.02279184748275</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1.658571541824685</v>
+        <v>-8.352155185381186</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>19.60066120533872</v>
+        <v>7.474649511592462</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.56673726857741</v>
+        <v>13.18747716879663</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.283409556298494</v>
+        <v>1.04771884115144</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>18.41695149338037</v>
+        <v>6.624261661301446</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.68427084630353</v>
+        <v>19.49463393294129</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-4.702130048282136</v>
+        <v>-7.710626813971871</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>13.02218940486229</v>
+        <v>1.764170720224929</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>17.65760518125632</v>
+        <v>12.88397364421906</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>3.276112091826704</v>
+        <v>-9.407919752082996</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>19.08203476358803</v>
+        <v>15.36981494483199</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.45274408080591</v>
+        <v>33.00237813121971</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.33978332453616</v>
+        <v>21.32437404456298</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>33.28756278623366</v>
+        <v>34.01871484995812</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.53614051747088</v>
+        <v>47.83074853847822</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.055702405621332</v>
+        <v>-5.513532565379116</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.5588167184865</v>
+        <v>14.73882489457312</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>31.67233576774965</v>
+        <v>24.0536172613578</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.03111299148308</v>
+        <v>9.190861023253825</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.44945055333556</v>
+        <v>25.48954399581629</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.45448504385229</v>
+        <v>35.03331906172512</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.231250867673516</v>
+        <v>4.673186460460123</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.39596907209228</v>
+        <v>36.33809916469393</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.68123037855037</v>
+        <v>41.10896015467745</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.79914774341508</v>
+        <v>12.85856261846022</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.86982228694355</v>
+        <v>57.09874613950973</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.9914410376666</v>
+        <v>61.51692737667928</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>34.1518280228783</v>
+        <v>45.39761048023082</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>41.45857712479426</v>
+        <v>52.37018767384679</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.45494067772366</v>
+        <v>54.05510795631199</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.61279968725644</v>
+        <v>19.78966186293037</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>34.75252143456183</v>
+        <v>36.82402162205589</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>40.07188257495562</v>
+        <v>52.49277775704898</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.03031020393879</v>
+        <v>7.52880168867302</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.93634401258357</v>
+        <v>25.95283332758028</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.966081307273</v>
+        <v>31.86479544313901</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.142524132352968</v>
+        <v>-4.417087966728008</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.68798302866633</v>
+        <v>20.50997914727295</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.02755080406135</v>
+        <v>25.63008267691567</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>16.14253811393008</v>
+        <v>-0.8887500774315242</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.74854023381202</v>
+        <v>41.17186962017578</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.88367786413477</v>
+        <v>48.15105254230145</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.17023500052657</v>
+        <v>37.16813585927532</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>45.27669582422946</v>
+        <v>48.42442595386211</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>48.29347737252097</v>
+        <v>52.24286688996799</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.39009816136457</v>
+        <v>8.269847697956667</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.72579169456304</v>
+        <v>38.6343222947094</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.86922555441219</v>
+        <v>46.63877866074985</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>18.55540420482622</v>
+        <v>8.725311512539948</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.81490320517645</v>
+        <v>28.16369704008013</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.01260265666951</v>
+        <v>38.01530986612874</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>12.59878812873936</v>
+        <v>-3.278051398356649</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.73413947949171</v>
+        <v>25.70973608449578</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.19132863932089</v>
+        <v>31.80864181456461</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.69837618911681</v>
+        <v>1.57582898400609</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.61800243669164</v>
+        <v>48.80586052084884</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>42.93561512346471</v>
+        <v>61.00091326845862</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.46703551277096</v>
+        <v>50.72704703670027</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>51.5008106602898</v>
+        <v>62.6318610124548</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>54.72533506831369</v>
+        <v>67.47936344682289</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.93099672986606</v>
+        <v>13.1701047814543</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.75813770078675</v>
+        <v>48.98356422433227</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>50.00676834626017</v>
+        <v>60.51839987699783</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-1.717648763026403</v>
+        <v>3.683974024433809</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.8070405402464</v>
+        <v>2.636458835465746</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>16.47005769613438</v>
+        <v>9.315219914168305</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-7.014021919815256</v>
+        <v>-4.942072683480365</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.868963919716798</v>
+        <v>-0.6317258996694726</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>12.83546253930173</v>
+        <v>4.669361829591001</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-1.00389204374801</v>
+        <v>-2.254710387972477</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.2220964802029</v>
+        <v>11.67927277320081</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.9680554435546</v>
+        <v>15.62762638285993</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.541582547781</v>
+        <v>8.102881645314934</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.16548743998067</v>
+        <v>11.81012453478647</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.14620522400405</v>
+        <v>17.05144238617709</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2.523387771274123</v>
+        <v>-5.012567105487474</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.90924204341077</v>
+        <v>1.15618937216562</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.66599123893435</v>
+        <v>6.760672573519548</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.952919926498296</v>
+        <v>3.39480583107277</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.00473605351081</v>
+        <v>9.952136926061527</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>20.80312706956937</v>
+        <v>20.73985615569802</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-4.373361494186483</v>
+        <v>-4.456817498477808</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>11.95005076631723</v>
+        <v>1.602834475115277</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.08818509304933</v>
+        <v>13.73093836046813</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>2.104790925381366</v>
+        <v>-4.752306384212289</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>16.90104722994156</v>
+        <v>14.41601031104942</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.77751495280504</v>
+        <v>27.36834302689158</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.2507845841846</v>
+        <v>12.17501365525507</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.67969467322673</v>
+        <v>22.46465969290935</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>32.7214606482621</v>
+        <v>32.81058679235822</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.925631962679617</v>
+        <v>-6.765012191765592</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>23.54140558712252</v>
+        <v>12.02767618862055</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.26746198589334</v>
+        <v>20.5344029434</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>8.101727226194377</v>
+        <v>7.866819704703952</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>23.56630067701151</v>
+        <v>15.47267649649128</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>27.45314045980259</v>
+        <v>27.08978197083877</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1.749419683272428</v>
+        <v>-2.965339937402057</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.73664522567476</v>
+        <v>6.7776920683672</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.91128836964494</v>
+        <v>18.10389060486582</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>9.446201394511228</v>
+        <v>-0.331165012296502</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.61715612140143</v>
+        <v>24.46832139380175</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.59377607670305</v>
+        <v>38.84212150238858</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.23581614715667</v>
+        <v>28.39080115882556</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>37.58608405493283</v>
+        <v>38.91781364443342</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>40.77737310432468</v>
+        <v>51.04671087887598</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.17111189460488</v>
+        <v>3.435035994726082</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.27880612923977</v>
+        <v>25.79735879248637</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.01554767281669</v>
+        <v>35.7406216815948</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.740860837946428</v>
+        <v>-6.225747389272609</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.540469859239</v>
+        <v>0.1770522113589692</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.30185058973325</v>
+        <v>3.983928598993462</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.9466340132006508</v>
+        <v>-14.44468595298869</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.38763397052389</v>
+        <v>-1.403991849171859</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>20.43329252327317</v>
+        <v>1.600665504607441</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>6.025134078189218</v>
+        <v>-12.32518515222083</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.50992306020294</v>
+        <v>15.84651367917889</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.36599999690264</v>
+        <v>16.88497975399711</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.90774543870725</v>
+        <v>6.026238014519626</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.15805243931552</v>
+        <v>11.13726397457308</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.09637263409229</v>
+        <v>14.14358663342296</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.731221592790881</v>
+        <v>-11.86388756153833</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.31291188175051</v>
+        <v>-3.417109053429595</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.13693676107317</v>
+        <v>0.3669338920814944</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>9.398364095851711</v>
+        <v>13.93088514337416</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.69792769769928</v>
+        <v>28.14342456144113</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.54163517667107</v>
+        <v>32.27386627412676</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2.718340374956057</v>
+        <v>1.618849876708776</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.45128586162884</v>
+        <v>18.58853933763213</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.61545935587922</v>
+        <v>24.80186465458117</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10.20637969735638</v>
+        <v>4.524658143006246</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.23597886635168</v>
+        <v>38.54912761503074</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.16568798781606</v>
+        <v>45.08105016509236</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.6667278866826</v>
+        <v>35.5509130934774</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>38.721918749609</v>
+        <v>46.39603300505074</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>41.68903804440424</v>
+        <v>51.41261598092655</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.21112478380184</v>
+        <v>10.10661624983094</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>31.98870815160761</v>
+        <v>34.9348936411292</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.72132010841692</v>
+        <v>40.50518416248778</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.28371616681724</v>
+        <v>16.15314275204249</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.03095025818403</v>
+        <v>32.66665679090103</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.03231756793527</v>
+        <v>39.45106117307824</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>8.446710833988085</v>
+        <v>0.8322312197614181</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.88787214784367</v>
+        <v>22.62112638023588</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.15542468373366</v>
+        <v>28.86485889290801</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.21661683682274</v>
+        <v>5.132610933685232</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.65270410170096</v>
+        <v>45.69078304824384</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>37.75469441903954</v>
+        <v>56.17903549211665</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.38447691420458</v>
+        <v>47.87939427696374</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>46.40821939743088</v>
+        <v>60.04899439743516</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>49.58730512391105</v>
+        <v>66.23299921862332</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>20.08607155798478</v>
+        <v>12.76035932376381</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>39.44853068423085</v>
+        <v>44.81226887962243</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>44.27885405556132</v>
+        <v>51.25981712787122</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>5.142852056464122</v>
+        <v>8.718701310300217</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.17777278118077</v>
+        <v>8.337830359282144</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.04426907721959</v>
+        <v>14.1084143318331</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.5561647770214648</v>
+        <v>-0.393967306397105</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>15.90524956462365</v>
+        <v>6.938177766682244</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.0595300547583</v>
+        <v>11.53465953416388</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>6.378464171281607</v>
+        <v>3.633878875482928</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.09051613747629</v>
+        <v>20.07762751055678</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.05305159627469</v>
+        <v>23.45140735817151</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.69041652049286</v>
+        <v>13.93447220609606</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.57719303469941</v>
+        <v>18.83547933791013</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.64254009647766</v>
+        <v>23.43107486858939</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>9.109693501410327</v>
+        <v>6.517451616574697</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.81410416610049</v>
+        <v>8.486401767538574</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>30.80961642599561</v>
+        <v>15.13148352793576</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>8.21776393204118</v>
+        <v>2.661746497672858</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.78048468765301</v>
+        <v>5.891655723719659</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>27.759325726739</v>
+        <v>14.31743696815494</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1.491096217630471</v>
+        <v>-5.507457821310521</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>18.37825920041232</v>
+        <v>-1.01055024232766</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.68323635043212</v>
+        <v>9.139554043338944</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.842730625335115</v>
+        <v>-6.053667963704644</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.12951837087979</v>
+        <v>10.7013282744456</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.19683981395379</v>
+        <v>22.26435491025386</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.84808360870529</v>
+        <v>7.352915447333494</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.56182026284507</v>
+        <v>15.22823629748076</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.67080900735762</v>
+        <v>25.10303309793105</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>11.98414903842267</v>
+        <v>-5.687000046336095</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.9342700765598</v>
+        <v>6.221174487570899</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.86120579082585</v>
+        <v>14.70783380403259</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.47256712971019</v>
+        <v>12.13859274557074</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.50337989697164</v>
+        <v>19.02519126725544</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.60226255190621</v>
+        <v>28.08459420519846</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.590259473829249</v>
+        <v>-2.937185752235038</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.21450665050391</v>
+        <v>8.392008245016738</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.58276942232435</v>
+        <v>17.15289761769081</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.34126543254138</v>
+        <v>1.193933539683979</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.05379933963172</v>
+        <v>26.92131703665785</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>37.25552342671703</v>
+        <v>39.91968140327925</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.98312537148819</v>
+        <v>27.12640289490522</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>45.63328436833679</v>
+        <v>36.23195163862219</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>48.94031123550192</v>
+        <v>46.33968719352266</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.22967451117025</v>
+        <v>5.899329097233915</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.77307926238437</v>
+        <v>24.57109187953376</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>43.74086052427021</v>
+        <v>32.56035825442604</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3.961295005259522</v>
+        <v>2.892461141630587</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.05436305043515</v>
+        <v>-0.9565842125240565</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.62396912333978</v>
+        <v>1.775917744194082</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-9.595254959160961</v>
+        <v>-2.995353143424762</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>5.700827513581196</v>
+        <v>-2.379380855869773</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>9.532680519351004</v>
+        <v>0.08027640100793931</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-3.83423146224272</v>
+        <v>-3.814074934548611</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.879322333413555</v>
+        <v>5.884417497830871</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>13.53745191492005</v>
+        <v>6.843820504234055</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.17213947521032</v>
+        <v>0.01795660940078037</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.63225156387215</v>
+        <v>-0.7768881538858139</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.5317032008136</v>
+        <v>5.680343035245354</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-0.1099003688646292</v>
+        <v>-2.220011981597406</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.44599991375939</v>
+        <v>-5.089081274510946</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.03578219485536</v>
+        <v>-2.442266606674742</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.6923057667622956</v>
+        <v>-0.08601799099378837</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.81595698250969</v>
+        <v>-0.2461423590046934</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.50378916135371</v>
+        <v>4.031161011182238</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-7.300909798902502</v>
+        <v>-6.04451379716696</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.387059806036383</v>
+        <v>-6.435899794802854</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>12.37713067933309</v>
+        <v>-0.1468173727714976</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1.124042842078495</v>
+        <v>-10.35814469571948</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.12692606166078</v>
+        <v>0.3583896131263806</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>16.8961463423361</v>
+        <v>7.46695925506971</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.5227405819858</v>
+        <v>-3.731005577415246</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.77619489698951</v>
+        <v>0.03807409747269475</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.71705745991557</v>
+        <v>9.328286721579943</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>2.959460414163843</v>
+        <v>-10.6631392897671</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>19.68840374894724</v>
+        <v>-4.866846153622859</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.22821017289824</v>
+        <v>-1.120134812286373</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.014855230736821</v>
+        <v>12.25600577917069</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.00291704462178</v>
+        <v>15.50001141791586</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.80881207227305</v>
+        <v>20.68848706466239</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>0.227950124082632</v>
+        <v>-2.045939432606616</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>16.66224139414919</v>
+        <v>3.951004225512818</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.7155120638479</v>
+        <v>9.596394087429276</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>7.82742846839443</v>
+        <v>-1.005292902306444</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.51670224741171</v>
+        <v>18.17512161730995</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.41740816318151</v>
+        <v>27.06802959743738</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.05637687171202</v>
+        <v>17.88572073819908</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.25467069920619</v>
+        <v>22.7815036952687</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.38822175339127</v>
+        <v>32.90486255357981</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.58712572785362</v>
+        <v>2.525205885121366</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.91599632059452</v>
+        <v>14.65324798404952</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>33.50612658695615</v>
+        <v>18.78210299513825</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-3.409179242533405</v>
+        <v>18.566246833585</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>11.72440123332115</v>
+        <v>23.1552516413544</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.70428892539109</v>
+        <v>31.13850187214241</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-9.540935470859544</v>
+        <v>3.644135465460398</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.01202365517775</v>
+        <v>19.34784279029315</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.35596752773841</v>
+        <v>23.13571359158208</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2.861945403764949</v>
+        <v>12.6732144295453</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>11.94252393917936</v>
+        <v>36.93154944584919</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>16.01630233272137</v>
+        <v>41.81305261211696</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>17.63797548115124</v>
+        <v>32.37970488647431</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.5813392065505</v>
+        <v>37.65559995201619</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>27.60677519369452</v>
+        <v>40.91026356445546</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1.489980740052708</v>
+        <v>23.94177727237939</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>18.11971992773211</v>
+        <v>31.15158911636196</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.28504201146618</v>
+        <v>39.81808009173079</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>0.1496092064740964</v>
+        <v>10.33953949310937</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.83631049476804</v>
+        <v>17.63287543698023</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.92349719968177</v>
+        <v>24.67357730988027</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-7.115576317404027</v>
+        <v>-7.295165324058612</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.885571830405048</v>
+        <v>2.356009771283283</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.37267218327133</v>
+        <v>7.84481279535953</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.04133304083617872</v>
+        <v>-3.929067062139765</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.44677425807215</v>
+        <v>18.36525364960816</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.62078895193125</v>
+        <v>28.46339509037914</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.22686889510258</v>
+        <v>18.74309998904382</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.05146099285929</v>
+        <v>28.97947649695314</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>32.13786720446543</v>
+        <v>33.5979391427266</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>4.704183861594537</v>
+        <v>4.510996522897109</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.66769966512523</v>
+        <v>21.76913286807208</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.73082923613306</v>
+        <v>27.2407846011571</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>5.790611011202252</v>
+        <v>18.09788867562978</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.90707785173453</v>
+        <v>27.13842214357963</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.15204416631821</v>
+        <v>35.86976286809464</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1.596529888244852</v>
+        <v>-1.555610968906098</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.10379792547436</v>
+        <v>13.15945344503943</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.70503669243571</v>
+        <v>18.9743940999869</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>6.783317719753391</v>
+        <v>3.862604124375963</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.57549651594753</v>
+        <v>32.85726016791348</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.9195757332853</v>
+        <v>45.37526093412812</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.71839579563002</v>
+        <v>39.57195404014372</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.45113386122074</v>
+        <v>49.41268955047159</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>39.72683164946038</v>
+        <v>56.0910208832271</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>11.40910634018766</v>
+        <v>15.66992564028257</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.89825788911755</v>
+        <v>37.03319018266231</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>35.06840417607776</v>
+        <v>45.60133192026147</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.660656331355469</v>
+        <v>13.73791019620997</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.47156036433749</v>
+        <v>28.27858596357351</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.33989356708203</v>
+        <v>35.24001630035109</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>4.257244943905462</v>
+        <v>5.134188976314922</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.59564229965827</v>
+        <v>27.08675340482605</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.77109043446029</v>
+        <v>32.56034947738923</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.61903865881099</v>
+        <v>11.80321897281038</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>27.11466253832796</v>
+        <v>46.86171185800804</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.07497963812935</v>
+        <v>51.57756227219409</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.30694154082027</v>
+        <v>43.94571369442495</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>38.55437580604659</v>
+        <v>48.95151883479585</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>41.63714856502146</v>
+        <v>52.72085317275639</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.86762025310048</v>
+        <v>13.18514004789307</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>31.65633353393737</v>
+        <v>34.53240888988287</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.65633038424279</v>
+        <v>44.60754668776455</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.7326233695907</v>
+        <v>8.102635260514344</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.04872134046717</v>
+        <v>23.91454971259203</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.01278595441157</v>
+        <v>31.16074804682174</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>6.267849290165856</v>
+        <v>-1.845802029033969</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.01146750072268</v>
+        <v>15.1376094805557</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.31785100444892</v>
+        <v>23.80163451421467</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.06433060794294</v>
+        <v>-0.9076795875013381</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.11053180750869</v>
+        <v>32.17829086427879</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.15958033350451</v>
+        <v>41.96262028802219</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.42946008838706</v>
+        <v>32.80486941348953</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.4925751099011</v>
+        <v>43.17548045735706</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.61236339852919</v>
+        <v>49.6009308525811</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.72754951992494</v>
+        <v>1.660930423938659</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.72427976637383</v>
+        <v>29.60467326504226</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.64125136944288</v>
+        <v>39.36373558499804</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>18.86346596401112</v>
+        <v>7.131379065060544</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.61037800137971</v>
+        <v>25.69232982046272</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.71498789574373</v>
+        <v>35.12205547670304</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.35887692205852</v>
+        <v>-4.110969314483388</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.792864430245</v>
+        <v>18.18070729153278</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.18422764190412</v>
+        <v>27.20399097884043</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.42126548376796</v>
+        <v>-1.926849245735553</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>37.85750322696076</v>
+        <v>38.15710773611576</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.06137601685111</v>
+        <v>51.64872672642716</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.46490873387046</v>
+        <v>43.76481079655791</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.47374182439309</v>
+        <v>55.51609962343492</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>53.79181208256607</v>
+        <v>64.15783299569452</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.94669361237894</v>
+        <v>3.484821907295839</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>43.49178917560165</v>
+        <v>38.4067875765805</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.47267911325623</v>
+        <v>49.43150399583215</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>19.12897322603811</v>
+        <v>10.24699501381237</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.83953240875002</v>
+        <v>22.30177562926098</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.23363040025749</v>
+        <v>30.65832663045643</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>13.32729102545518</v>
+        <v>3.712988883469844</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>31.67063810022311</v>
+        <v>29.10342063095777</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.46503705973272</v>
+        <v>33.55117180716636</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.0262277451736</v>
+        <v>10.2653111470239</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>38.37604454925827</v>
+        <v>46.30908594760838</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>42.8803417609994</v>
+        <v>51.05442404976614</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.01006627032574</v>
+        <v>35.75079784436028</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.81014810523352</v>
+        <v>40.22822489612938</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>53.06919406836684</v>
+        <v>43.76462962995699</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>23.69247732311683</v>
+        <v>13.81654755026816</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.04671262490081</v>
+        <v>28.28882898166827</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.73017303519596</v>
+        <v>41.70796699926768</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.03243986311001</v>
+        <v>9.54748510583596</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.33489721224784</v>
+        <v>26.13039834219654</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.81094104263145</v>
+        <v>32.86698555076316</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>16.04471037008121</v>
+        <v>-3.331827923389234</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.87226832401134</v>
+        <v>17.01943432175648</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.78347505356551</v>
+        <v>23.15849378972286</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.27367190797501</v>
+        <v>-0.9128164887878256</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.26595792526201</v>
+        <v>35.07917502100308</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.84306975555016</v>
+        <v>44.89525713754458</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>46.00672148075226</v>
+        <v>33.79268576471032</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.73168604365831</v>
+        <v>45.8268717464011</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>58.04468064512131</v>
+        <v>52.32657267132601</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.3141350234359</v>
+        <v>3.99258627506887</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.07732751382165</v>
+        <v>33.58432044025395</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>52.62118656763059</v>
+        <v>42.72111092205301</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.97483847797194</v>
+        <v>10.47794716646288</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>45.70482514840024</v>
+        <v>28.02279377037643</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>50.36902091821251</v>
+        <v>36.72125180183202</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.84916783746478</v>
+        <v>-3.533335889060211</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>40.37436637066492</v>
+        <v>20.8210486126324</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>45.42889950741636</v>
+        <v>27.24378922351342</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>31.30171952079561</v>
+        <v>-0.5236750267286183</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.67741461015571</v>
+        <v>40.92195207785669</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>53.45605406073203</v>
+        <v>53.83192754596074</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>52.85899009642937</v>
+        <v>45.96004370170365</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>61.52352225457997</v>
+        <v>57.75006934898752</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>65.0452125960208</v>
+        <v>66.14689045179222</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.37548860121986</v>
+        <v>6.978205511586426</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>53.68695559825852</v>
+        <v>41.2313363121097</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>59.3691199289924</v>
+        <v>53.55181747265461</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>44.83213111308643</v>
+        <v>18.84838967813516</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>62.83767054975851</v>
+        <v>24.85955332777449</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>67.84180138349497</v>
+        <v>32.99618637309216</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>38.37779529546135</v>
+        <v>16.83817685969439</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.08959194116687</v>
+        <v>37.40264725847967</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>63.54631676716111</v>
+        <v>41.77109275426294</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>49.60819055968183</v>
+        <v>18.71076602617541</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>67.20650681642415</v>
+        <v>46.09579859511879</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>72.33809627941449</v>
+        <v>51.47628187464143</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>68.51244972667396</v>
+        <v>36.67973347272564</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>77.23475266076588</v>
+        <v>41.43481645530882</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>80.9352460268519</v>
+        <v>44.8987045970729</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>47.69666385878441</v>
+        <v>24.18052173636775</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>67.27994715642697</v>
+        <v>29.57878353508977</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>73.69862847241835</v>
+        <v>42.18545923095918</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.48143554765191</v>
+        <v>19.11343063922349</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>68.20626304278434</v>
+        <v>29.28825287383777</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>73.32392336767617</v>
+        <v>36.68024778472776</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>41.71647461991613</v>
+        <v>16.46194069992798</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>62.03517857485062</v>
+        <v>31.25202155661781</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>67.64721557651238</v>
+        <v>38.06757532327866</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>53.56898707474161</v>
+        <v>9.822534780810845</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>71.94321815645358</v>
+        <v>36.95103055395994</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>77.17807227360814</v>
+        <v>47.90436521790687</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>73.34509750171645</v>
+        <v>35.54248155846255</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>83.11662774139579</v>
+        <v>46.69566696586418</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>86.89195105099502</v>
+        <v>52.7960001503474</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>52.09145550908666</v>
+        <v>15.22965620941444</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>73.32647549579301</v>
+        <v>34.07136595834936</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>79.62239366947364</v>
+        <v>43.61215226549944</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.97564619207213</v>
+        <v>18.61313059524895</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>74.21974360138188</v>
+        <v>29.77353690217343</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>79.54249022248155</v>
+        <v>38.16427471263202</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>46.96662428590357</v>
+        <v>14.99688621762901</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>68.11501154495323</v>
+        <v>33.70671844165133</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>73.88194226770241</v>
+        <v>39.66935101179185</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>60.25138919086865</v>
+        <v>10.18527101739762</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>79.09509778339907</v>
+        <v>43.00311889452755</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>84.55000679285631</v>
+        <v>55.9676634137586</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>80.97373652250029</v>
+        <v>48.62577963251513</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>90.71914284687163</v>
+        <v>58.38180134409034</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>94.71785366816594</v>
+        <v>66.04471032299941</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.81425118973063</v>
+        <v>17.33575654667411</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>80.71153740963481</v>
+        <v>40.22042700263063</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>87.14892122050153</v>
+        <v>53.8596198167042</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.10886181686015</v>
+        <v>8.205945349817888</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>31.9534961477284</v>
+        <v>22.92247901340151</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.10115539466625</v>
+        <v>30.11023844670211</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>9.637252031973688</v>
+        <v>0.0482512580257648</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.12903277432643</v>
+        <v>23.39715723793184</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.60510053469392</v>
+        <v>26.85750566566989</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.98533026388889</v>
+        <v>6.499287584923071</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>34.48187525451665</v>
+        <v>43.5962094263033</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.7334569567287</v>
+        <v>47.645096179915</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.23063330667888</v>
+        <v>39.78663831640387</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>46.01125262133183</v>
+        <v>44.75600519663502</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>49.23129912837419</v>
+        <v>46.40381614827199</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>19.57556019600435</v>
+        <v>5.670860503065612</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.43359751510786</v>
+        <v>28.44059394045609</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.78303066848193</v>
+        <v>37.37464704421598</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>18.98809000300009</v>
+        <v>6.512901703737198</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.39159047917401</v>
+        <v>22.72446721534779</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>40.63323784264857</v>
+        <v>28.5426328953601</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.38546149305446</v>
+        <v>-3.76166202530144</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>31.33267325212812</v>
+        <v>15.03465633290356</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.93773327837198</v>
+        <v>20.0793931103866</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.24356575559339</v>
+        <v>-2.800022348027333</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.34765192002466</v>
+        <v>31.65002822105084</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.68505847174777</v>
+        <v>39.74928649606169</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>42.19943269429777</v>
+        <v>32.46770139363059</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.85757107721276</v>
+        <v>41.85741302317491</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>54.1235687774625</v>
+        <v>46.01632771240778</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>23.23446569623928</v>
+        <v>-1.863997145583994</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.41684216211236</v>
+        <v>28.68405553711418</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>48.66749510302257</v>
+        <v>36.45835463377789</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.63480044052992</v>
+        <v>7.376679423047925</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>42.48032515981835</v>
+        <v>25.15914797885627</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>46.88061567528061</v>
+        <v>33.1781141120653</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.94625129006954</v>
+        <v>-3.678905905455217</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.60451108632802</v>
+        <v>19.01791939386499</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.31873229028371</v>
+        <v>23.92740241507048</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.07675109842949</v>
+        <v>-2.63645051239758</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.58023565497439</v>
+        <v>37.96118922753922</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>50.08990938314062</v>
+        <v>49.2140232553165</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>49.79986455573501</v>
+        <v>45.24459474088469</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>58.41101267789671</v>
+        <v>55.9076030432587</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>61.8834662926041</v>
+        <v>61.95714079980202</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>30.01597422454643</v>
+        <v>1.009170360924209</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>50.76326299283465</v>
+        <v>37.14947035495493</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>56.10486197836261</v>
+        <v>47.2745728633495</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>8.072772332884071</v>
+        <v>6.581814220749456</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.06864360023991</v>
+        <v>7.692855748203675</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>27.04015250555501</v>
+        <v>14.06209075954047</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.395572701593984</v>
+        <v>-3.518747743560791</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.81088193610238</v>
+        <v>7.95831397580735</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.14299662213104</v>
+        <v>10.91153917469479</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.517372754389704</v>
+        <v>0.8417844830431598</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.18256816551628</v>
+        <v>18.66197188541678</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.24765961676193</v>
+        <v>23.23047720648409</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.83202352491665</v>
+        <v>14.19271675369687</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>35.79451612283042</v>
+        <v>17.62146290492641</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>38.83361453445711</v>
+        <v>20.62038326100911</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.37138103732855</v>
+        <v>2.025858880348299</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.92509733204189</v>
+        <v>6.91470627407066</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.06495793377093</v>
+        <v>12.97491397041773</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.23785141082215</v>
+        <v>6.779444008550632</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.83349830942053</v>
+        <v>16.21603873609364</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>31.91621312216923</v>
+        <v>25.00369331787347</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>5.486966651691972</v>
+        <v>-3.883286758061921</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.41000688949268</v>
+        <v>8.382211433886022</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.89158071985167</v>
+        <v>16.1600727762285</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.12375697569403</v>
+        <v>-2.544345002506397</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.43571140055935</v>
+        <v>20.4664562307586</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>32.60403627034685</v>
+        <v>33.23365471609981</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.10457542610943</v>
+        <v>20.16242113003662</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.93829818997953</v>
+        <v>31.13408762358657</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.04445523716114</v>
+        <v>37.03777116314026</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.24801627158752</v>
+        <v>-3.003049847063231</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>34.18025963938579</v>
+        <v>19.1682463405383</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>39.23512257543359</v>
+        <v>27.59129290682191</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>17.77375047515402</v>
+        <v>11.50964702535193</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>33.78987107728753</v>
+        <v>22.02761660730605</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.01666355566835</v>
+        <v>31.03956534784554</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>10.8932492321035</v>
+        <v>-2.343641639359944</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.49641950597145</v>
+        <v>14.59546598370157</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>33.07691312948957</v>
+        <v>20.78225689858154</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>19.74024982412585</v>
+        <v>1.208437728769248</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.43191485273225</v>
+        <v>29.81935477311317</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>39.75705825721471</v>
+        <v>43.19840182629169</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.45424267892061</v>
+        <v>34.6274267038951</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.21757426171327</v>
+        <v>45.01493264743405</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.49508906871662</v>
+        <v>50.96052476783149</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.84347526474624</v>
+        <v>4.420666114362021</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.28186874482687</v>
+        <v>29.97115903765667</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>46.4235399901707</v>
+        <v>39.67545494642692</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.57759642147673</v>
+        <v>7.669700359821753</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>62.47865728731034</v>
+        <v>11.54058265748098</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>67.47587361144463</v>
+        <v>20.05010421893085</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>38.12725034644038</v>
+        <v>1.460441018367007</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>57.71727821861902</v>
+        <v>18.75855567119742</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>63.16819296132677</v>
+        <v>23.73568918493052</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>49.31490889104531</v>
+        <v>5.568374066681844</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>66.81007924545838</v>
+        <v>29.22585202097931</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>71.93378885552322</v>
+        <v>35.34595306282036</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>68.17626396532506</v>
+        <v>22.75153943333301</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>76.85671716687364</v>
+        <v>27.6902841615472</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>80.55939985222798</v>
+        <v>31.64199165129249</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>47.44126358683484</v>
+        <v>10.10445500456821</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>66.91619456721715</v>
+        <v>15.23509061375479</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>73.32915244515536</v>
+        <v>27.81790829016977</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>49.16843473848133</v>
+        <v>6.154284996038854</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.79342805743546</v>
+        <v>14.96625877100077</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>72.90933395365103</v>
+        <v>24.36572905972944</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>41.4035234689217</v>
+        <v>-0.6712835804954658</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>61.6063991435265</v>
+        <v>11.71128145124549</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>67.21808838340618</v>
+        <v>20.83747344449081</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.21117458566405</v>
+        <v>-4.084401688063359</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>71.48686601067308</v>
+        <v>20.07429525299968</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>76.71924479077428</v>
+        <v>33.43380540383929</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>72.94465484358396</v>
+        <v>20.24939066636528</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>82.67618034253374</v>
+        <v>31.97367078470007</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>86.45695784926669</v>
+        <v>39.3372620167453</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>51.76822343794902</v>
+        <v>-0.7846811857614462</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>72.90065606879523</v>
+        <v>18.05574351291204</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>79.19689517667129</v>
+        <v>29.04902353485757</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>54.7091440447536</v>
+        <v>5.995571558164563</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>73.85191585856788</v>
+        <v>15.67351767075754</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>79.16848524342153</v>
+        <v>25.67993542695739</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>46.70627580879213</v>
+        <v>-2.371678064170432</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>67.73728655944225</v>
+        <v>13.99791283003795</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>73.49932500623356</v>
+        <v>21.89413445107048</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>59.94559505475098</v>
+        <v>-3.959259187191748</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>78.68937180410839</v>
+        <v>25.86052035645974</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>84.13731079472794</v>
+        <v>40.6810222391366</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>80.62082078760544</v>
+        <v>33.6964885179141</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>90.32285520789814</v>
+        <v>43.35080786515056</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>94.32315929371656</v>
+        <v>52.16895187979639</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>58.54214989346066</v>
+        <v>1.767391761576793</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>80.33214100321396</v>
+        <v>23.95348355844186</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>86.76325596675687</v>
+        <v>39.1768612251488</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.07012867652895</v>
+        <v>16.00037543604493</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.49010302273726</v>
+        <v>24.41733769022233</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>32.52050729465459</v>
+        <v>33.49924281904188</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>7.656743668799521</v>
+        <v>5.895152627323593</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>24.64979892569347</v>
+        <v>32.11704523167275</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.98624793017777</v>
+        <v>37.20056608288757</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.23471013673288</v>
+        <v>15.23625833196072</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>30.2996041804209</v>
+        <v>49.23742953227307</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.43890663846999</v>
+        <v>54.85074796501967</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>34.56474326881191</v>
+        <v>39.51405739860817</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.65275563477483</v>
+        <v>45.71274984251505</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>44.6923634383153</v>
+        <v>48.10289274148665</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.76817572602406</v>
+        <v>25.69712183018371</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>34.69270559577431</v>
+        <v>33.41421563174619</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>40.02857621049377</v>
+        <v>49.50512367691599</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.52117559086516</v>
+        <v>18.13513420988647</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.49191843708246</v>
+        <v>29.10593853454014</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.5895710751433</v>
+        <v>35.147684049173</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>10.00369741718008</v>
+        <v>2.016700870585311</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.44602659776397</v>
+        <v>21.57133227426813</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.88229705279865</v>
+        <v>26.96016449175483</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>18.05047875926725</v>
+        <v>5.855019320148168</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.71377882250366</v>
+        <v>38.18506457893812</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>37.91145033872044</v>
+        <v>46.7127490297967</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.05959346645312</v>
+        <v>37.16214198943218</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>45.99261364163126</v>
+        <v>45.23563965662898</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>49.07486079926591</v>
+        <v>49.43701869577759</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.9409307305032</v>
+        <v>14.86950723748603</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>39.17234798552047</v>
+        <v>35.64035129420454</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.36765172145975</v>
+        <v>44.23895990872981</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.5362736142427</v>
+        <v>16.63902071339642</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.89535339331709</v>
+        <v>29.17511751842338</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>42.15114339921443</v>
+        <v>37.53932526736865</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>14.89505392585109</v>
+        <v>-0.1826547164584191</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>32.97595368694131</v>
+        <v>24.14427210655484</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>37.52269416276039</v>
+        <v>29.63610845140601</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.10388890231815</v>
+        <v>6.205623065922403</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>40.11490541169893</v>
+        <v>44.72705337523652</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>44.48430999768398</v>
+        <v>56.38402035931206</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>44.85790102101339</v>
+        <v>48.44549795343431</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>52.71249448298818</v>
+        <v>58.31896821847493</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>55.99329864731953</v>
+        <v>63.2814440690014</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.96673504117387</v>
+        <v>16.08714214967136</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.70197038289588</v>
+        <v>42.94992716105104</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.98586436701025</v>
+        <v>54.94052812779603</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>12.09709040820173</v>
+        <v>6.278416234273276</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.82637918653883</v>
+        <v>20.8160656793</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.93912550525426</v>
+        <v>27.63874433448494</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.623444881879117</v>
+        <v>-1.199901330320216</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.00438882300016</v>
+        <v>22.65427995353731</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.44079629817221</v>
+        <v>24.672294309852</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>14.70113186724336</v>
+        <v>4.604965187577491</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>31.08304307167394</v>
+        <v>41.52168243631463</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.30000552224598</v>
+        <v>45.42542886440447</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.13016112102591</v>
+        <v>37.43313815964678</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>42.82101566304195</v>
+        <v>43.80757696723767</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>46.01586909065654</v>
+        <v>43.5389995128277</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>16.72911264914435</v>
+        <v>3.170724530568783</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.47124477180283</v>
+        <v>25.38992647868641</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>40.78416962236572</v>
+        <v>34.93085284340476</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>15.99535044720545</v>
+        <v>7.683390919566783</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.27359436872831</v>
+        <v>24.46100746640326</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>37.47797690485778</v>
+        <v>30.4347117020741</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>9.407998220888963</v>
+        <v>-2.928459130356153</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.23522767737056</v>
+        <v>16.54277696327438</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>32.79767816619577</v>
+        <v>20.97906168889024</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>17.99118815923156</v>
+        <v>-1.915104421997725</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.96998912234105</v>
+        <v>33.28585925267344</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>39.2705025062056</v>
+        <v>42.06685959742703</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.10957375840155</v>
+        <v>34.60240615115111</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>47.6684783986074</v>
+        <v>44.59389820039357</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>50.91016028968036</v>
+        <v>47.32367678910945</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.39605928966926</v>
+        <v>-1.421041796494674</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.4459242793332</v>
+        <v>29.82585741322069</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>45.65598049344352</v>
+        <v>38.66867585439194</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>21.40405687441527</v>
+        <v>7.951626614840981</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.11261371497663</v>
+        <v>25.78011893622251</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.47191068953087</v>
+        <v>33.7979388925696</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>14.7295519406708</v>
+        <v>-4.174377698899544</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.25003984528393</v>
+        <v>18.94479544232824</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>38.91864068584277</v>
+        <v>22.71427583301863</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>24.55373000640097</v>
+        <v>-3.268604193270978</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>41.92143021295819</v>
+        <v>37.46059794159997</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.39025272673936</v>
+        <v>48.92737520043124</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>46.44538277357974</v>
+        <v>44.41222715978333</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>54.95211609552452</v>
+        <v>55.25841900673679</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>58.3975464810394</v>
+        <v>60.35441164827069</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.93393674804854</v>
+        <v>-0.5680233516991677</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>47.53277985763071</v>
+        <v>35.69105011261261</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>52.83370608447802</v>
+        <v>46.95798616673666</v>
       </c>
     </row>
   </sheetData>
